--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H2">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>7.374821674037889</v>
+        <v>0.6915170954250001</v>
       </c>
       <c r="R2">
-        <v>66.373395066341</v>
+        <v>6.223653858825</v>
       </c>
       <c r="S2">
-        <v>0.2603147168980752</v>
+        <v>0.02963815046471641</v>
       </c>
       <c r="T2">
-        <v>0.2603147168980752</v>
+        <v>0.0296381504647164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H3">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>4.170099756509889</v>
+        <v>10.62979338730833</v>
       </c>
       <c r="R3">
-        <v>37.530897808589</v>
+        <v>95.66814048577497</v>
       </c>
       <c r="S3">
-        <v>0.1471951981393804</v>
+        <v>0.4555887597084878</v>
       </c>
       <c r="T3">
-        <v>0.1471951981393804</v>
+        <v>0.4555887597084878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.035834666666667</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H4">
-        <v>9.107504</v>
+        <v>22.860825</v>
       </c>
       <c r="I4">
-        <v>0.2340016669801247</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J4">
-        <v>0.2340016669801247</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>4.234794054636445</v>
+        <v>4.041903083941667</v>
       </c>
       <c r="R4">
-        <v>38.113146491728</v>
+        <v>36.37712775547499</v>
       </c>
       <c r="S4">
-        <v>0.1494787622235155</v>
+        <v>0.1732343749101962</v>
       </c>
       <c r="T4">
-        <v>0.1494787622235155</v>
+        <v>0.1732343749101962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>9.107504</v>
       </c>
       <c r="I5">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J5">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N5">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q5">
-        <v>2.394568226412445</v>
+        <v>0.275492888496</v>
       </c>
       <c r="R5">
-        <v>21.551114037712</v>
+        <v>2.479435996464</v>
       </c>
       <c r="S5">
-        <v>0.08452290475660919</v>
+        <v>0.01180751674141273</v>
       </c>
       <c r="T5">
-        <v>0.0845229047566092</v>
+        <v>0.01180751674141272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.650871</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H6">
-        <v>13.952613</v>
+        <v>9.107504</v>
       </c>
       <c r="I6">
-        <v>0.3584884179824196</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J6">
-        <v>0.3584884179824197</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P6">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q6">
-        <v>6.487665838965668</v>
+        <v>4.234794054636444</v>
       </c>
       <c r="R6">
-        <v>58.38899255069101</v>
+        <v>38.113146491728</v>
       </c>
       <c r="S6">
-        <v>0.2290000993712142</v>
+        <v>0.1815016059744166</v>
       </c>
       <c r="T6">
-        <v>0.2290000993712143</v>
+        <v>0.1815016059744166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.650871</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H7">
-        <v>13.952613</v>
+        <v>9.107504</v>
       </c>
       <c r="I7">
-        <v>0.3584884179824196</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J7">
-        <v>0.3584884179824197</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7887676666666668</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N7">
-        <v>2.366303</v>
+        <v>1.591243</v>
       </c>
       <c r="O7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q7">
-        <v>3.668456666637667</v>
+        <v>1.610250220830222</v>
       </c>
       <c r="R7">
-        <v>33.01610999973901</v>
+        <v>14.492251987472</v>
       </c>
       <c r="S7">
-        <v>0.1294883186112054</v>
+        <v>0.06901469052110375</v>
       </c>
       <c r="T7">
-        <v>0.1294883186112054</v>
+        <v>0.06901469052110375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9167423333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.750227</v>
+      </c>
+      <c r="I8">
+        <v>0.07921490167966665</v>
+      </c>
+      <c r="J8">
+        <v>0.07921490167966663</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.272241</v>
+      </c>
+      <c r="O8">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P8">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q8">
+        <v>0.08319161652300001</v>
+      </c>
+      <c r="R8">
+        <v>0.7487245487070001</v>
+      </c>
+      <c r="S8">
+        <v>0.00356555993224766</v>
+      </c>
+      <c r="T8">
+        <v>0.00356555993224766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9167423333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.750227</v>
+      </c>
+      <c r="I9">
+        <v>0.07921490167966665</v>
+      </c>
+      <c r="J9">
+        <v>0.07921490167966663</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N9">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q9">
+        <v>1.278796577909889</v>
+      </c>
+      <c r="R9">
+        <v>11.509169201189</v>
+      </c>
+      <c r="S9">
+        <v>0.0548087178764019</v>
+      </c>
+      <c r="T9">
+        <v>0.0548087178764019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9167423333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.750227</v>
+      </c>
+      <c r="I10">
+        <v>0.07921490167966665</v>
+      </c>
+      <c r="J10">
+        <v>0.07921490167966663</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.591243</v>
+      </c>
+      <c r="O10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q10">
+        <v>0.4862532735734445</v>
+      </c>
+      <c r="R10">
+        <v>4.376279462161</v>
+      </c>
+      <c r="S10">
+        <v>0.02084062387101709</v>
+      </c>
+      <c r="T10">
+        <v>0.02084062387101708</v>
       </c>
     </row>
   </sheetData>
